--- a/medicine/Enfance/Pro_Juventute/Pro_Juventute.xlsx
+++ b/medicine/Enfance/Pro_Juventute/Pro_Juventute.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pro Juventute (latin : pour la jeunesse) est une fondation qui a été créée en 1912 par la Société suisse d'utilité publique (SSUP) pour combattre la tuberculose chez les enfants et les jeunes. Œuvre sociale de caractère privé, elle est active dans le domaine de l'aide à la jeunesse. En 1973[1], le placement forcé  d'enfants du voyage (dits tziganes mais yéniches) depuis 1926 par l’œuvre Les enfants de la grand-route provoque un vaste scandale conduisant à la fermeture du programme de placements forcés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pro Juventute (latin : pour la jeunesse) est une fondation qui a été créée en 1912 par la Société suisse d'utilité publique (SSUP) pour combattre la tuberculose chez les enfants et les jeunes. Œuvre sociale de caractère privé, elle est active dans le domaine de l'aide à la jeunesse. En 1973, le placement forcé  d'enfants du voyage (dits tziganes mais yéniches) depuis 1926 par l’œuvre Les enfants de la grand-route provoque un vaste scandale conduisant à la fermeture du programme de placements forcés.
 </t>
         </is>
       </c>
@@ -511,20 +523,127 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pro Juventute regroupant l'activité de plusieurs associations d'aide à la jeunesse, a usé à ses débuts de méthodes et d'une idéologie proche de l'eugénisme par le biais des membres fondateurs Ulrich Wille et Alfred Siegfried (de). Elle était censée venir en aide tout particulièrement aux enfants handicapés et maltraités et s'est intéressée également aux familles tziganes (yéniches, Sinti et Roms).
-Ulrich Wille
-Ulrich Wille junior (1877 - 1959) est l'un des membres fondateurs et le premier président. Il est le fils du général de la Première Guerre mondiale du même nom Ulrich Wille. Dès 1918, il entretint des relations avec des politiciens nationalistes allemands. Il accueille Adolf Hitler en 1923 dans sa villa pour une collecte de fonds. Dès 1923, Wille entretint des relations avec des chefs nazis, dont Rudolf Hess. Démis de ses fonctions dans l'armée en 1942, il reste au conseil de fondation de Pro Juventute jusqu'à sa mort en 1959[2].
-Eugénisme
-En Europe entre les deux guerres mondiales, une pseudo science de l'eugénisme voit le jour[3]. En découlent des programmes d'inspiration nationaliste de surveillance et d'élimination des personnes considérées comme déviantes, notamment les gens du voyages. Les familles yéniches présentes en Suisse sont soumises à un processus d'assimilation forcée[4]. Josef Jörger (de) et son fils Johann Benedikt Jörger (de) théorisent et mettent en pratique au niveau psychiatrique l'eugénisme visant les populations yéniches en Suisse et aboutissant à la conclusion d'une nécessité de purification ethnique[5],[6]. Alfred Siegfried[7],[8] se fait le tenant de cette approche en Suisse qui comporte des similitudes avec l'idéologie nazie[9], ce qu'il formule clairement dès 1926[10].
-Des idées eugénistes comparables ont eu cours dans l'Allemagne nazie et aux Etats-Unis[11].
-Alfred Siegfried était secrétaire de Pro Juventute à Lucerne, puis professeur romaniste au Gymnasium am Münsterplatz de Bâle avant d'être exclu de l'enseignement en 1924 à la suite d'une affaire de pédophilie pour laquelle il est condamné[12]. Le secrétariat central de Pro Juventute l'engage en 1924, et il devient responsable de la section consacrée aux enfants en âge scolaire de 1927 à 1957[13].
-Son successeur Peter Döbeli est condamné en 1963 à une peine de prison pour le même type de crime et est remplacé par Clara Reust (de), une des proches collaboratrices d'Alfred Siegfried pour les programmes de placements forcés des enfants yéniches. Cette dernière ne sera jamais inquiétée par la justice pour les enlèvements de force[14].
-Activités
-Pro Juventute est financée dès ses débuts par la vente de timbres postaux[15]. Elle prend en charge les consultations en puériculture, la communication sur des activités de vacances, de loisirs et l'attribution de bourses de formation.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pro_Juventute</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pro_Juventute</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Ulrich Wille</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ulrich Wille junior (1877 - 1959) est l'un des membres fondateurs et le premier président. Il est le fils du général de la Première Guerre mondiale du même nom Ulrich Wille. Dès 1918, il entretint des relations avec des politiciens nationalistes allemands. Il accueille Adolf Hitler en 1923 dans sa villa pour une collecte de fonds. Dès 1923, Wille entretint des relations avec des chefs nazis, dont Rudolf Hess. Démis de ses fonctions dans l'armée en 1942, il reste au conseil de fondation de Pro Juventute jusqu'à sa mort en 1959.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pro_Juventute</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pro_Juventute</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Eugénisme</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe entre les deux guerres mondiales, une pseudo science de l'eugénisme voit le jour. En découlent des programmes d'inspiration nationaliste de surveillance et d'élimination des personnes considérées comme déviantes, notamment les gens du voyages. Les familles yéniches présentes en Suisse sont soumises à un processus d'assimilation forcée. Josef Jörger (de) et son fils Johann Benedikt Jörger (de) théorisent et mettent en pratique au niveau psychiatrique l'eugénisme visant les populations yéniches en Suisse et aboutissant à la conclusion d'une nécessité de purification ethnique,. Alfred Siegfried, se fait le tenant de cette approche en Suisse qui comporte des similitudes avec l'idéologie nazie, ce qu'il formule clairement dès 1926.
+Des idées eugénistes comparables ont eu cours dans l'Allemagne nazie et aux Etats-Unis.
+Alfred Siegfried était secrétaire de Pro Juventute à Lucerne, puis professeur romaniste au Gymnasium am Münsterplatz de Bâle avant d'être exclu de l'enseignement en 1924 à la suite d'une affaire de pédophilie pour laquelle il est condamné. Le secrétariat central de Pro Juventute l'engage en 1924, et il devient responsable de la section consacrée aux enfants en âge scolaire de 1927 à 1957.
+Son successeur Peter Döbeli est condamné en 1963 à une peine de prison pour le même type de crime et est remplacé par Clara Reust (de), une des proches collaboratrices d'Alfred Siegfried pour les programmes de placements forcés des enfants yéniches. Cette dernière ne sera jamais inquiétée par la justice pour les enlèvements de force.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Pro_Juventute</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pro_Juventute</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Activités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pro Juventute est financée dès ses débuts par la vente de timbres postaux. Elle prend en charge les consultations en puériculture, la communication sur des activités de vacances, de loisirs et l'attribution de bourses de formation.
 Jusqu'en 1996 le conseil de fondation est dirigé par un conseiller fédéral et des personnalités politiques et militaires. Elle s'implique dans les soins dentaires et de santé dispensés au sein des écoles par les communes suisses. La formation des parents est aussi un de ses thèmes majeurs.
-En 1922 elle ouvre un sanatorium à Davos. En 1926 elle entame le programme des enfants de la grande route qui vise l'assimilation forcée des familles yéniches à travers le placement des enfants, et le recours à des stérilisations volontaires[7],[8],[4],[16].
+En 1922 elle ouvre un sanatorium à Davos. En 1926 elle entame le programme des enfants de la grande route qui vise l'assimilation forcée des familles yéniches à travers le placement des enfants, et le recours à des stérilisations volontaires.
 En 1935 est ouverte une maison de vacances à Waltensburg/Vuorz puis en 1962 un village de vacances est créé au Tessin.
 Elle est également active dans le placement d'enfants en famille d'accueil, foyer, apprentissage et la recherche d'emploi pour les enfants maltraités, handicapés souvent issus de familles monoparentales dirigées par une mère et assure leur surveillance.
 Elle gère l'association de villages d'enfants Pestalozzi de 1945 à 1950 et crée des places de jeux et des centres communautaires. Elle publie des brochures d'information pour les parents et l'agenda Pestalozzi pour les jeunes. Elle est à l’origine des places de jeu Robinson dont la première a été aménagée à Zurich-Wipkingen en 1957.
@@ -537,74 +656,151 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Pro_Juventute</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pro_Juventute</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Placements forcés d'enfants tziganes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les faits
-En 1926 est créée  l'Œuvre des enfants de la grand-route sous l'influence d'Alfred Siegfried sur une demande de Giuseppe Motta[17],[18] afin de retirer les enfants de parents yéniches, leur mode de vie nomade étant considéré comme une mise en danger des enfants et un fléau social qu'il faut éradiquer[19]. Le but est de les sédentariser, mais ils seront surtout placés dans des orphelinats[3],[16],[20],[21] où ils subiront de multiples sévices : déplacements nombreux pour empêcher leurs parents de les retrouver, abus sexuels, travail forcé, électrochocs et stérilisations[22].
-586 enfants yéniches à la charge des autorités sont séparés de leurs parents, envoyés dans des établissements spécialisés, ou encore recueillis par des parents d'adoption. Gens du voyage, leurs parents étaient a priori considérés comme incapables de les élever. Beaucoup de ces enfants n'ont jamais revu leurs proches, car il était considéré comme nécessaire de les couper de leur mauvaise influence. Certains d'entre eux témoignent d'abus sexuels commis par Alfred Siegfried[12].
-Analyses
-Des principes eugénistes ont servi à justifier les placements forcés d'enfants yéniches : « les enfants du voyage étaient labellisés comme racialement inférieurs, sur base de recherches menées par des psychiatres comme Josef Joerger (1919), qui avait désigné les Yéniches comme « psychopathes amoraux », « nymphomanes » ou « alcooliques irrécupérables ». », selon la sociologue Véronique Mottier[23]. « Là où l’éducation ne parvenait pas à « améliorer » un enfant yéniche, la stérilisation et d’autres mesures (comme le refus d’un permis de mariage) devaient empêcher toute nouvelle progéniture ainsi dégénérée »[23].
-Les Yéniches furent aussi particulièrement désignés, pour les mêmes motifs, pour être placés dans des institutions pénales[23].
-Réactions dans les années 1980
-L'hebdomadaire alémanique Der Schweizerische Beobachter dévoile le scandale des placements forcés  « Les enfants de la grand-route »[24],[16], et le programme est suspendu. Une série de reportages et documentaires est publiée et diffusée par la Télévision Suisse Romande dès les années 1980[3],[19],[20],[22],[25].
-Le président de la confédération Alphons Egli présente des excuses publiques, car le projet est financé par l'aide financière de l'État[19]. Le programme est dissout en 1973, ses archives mises sous scellés. Pro Juventute présente des excuses officielles aux victimes. En 2013 la confédération Suisse présente des excuses officielles[26] à travers la conseillère fédérale Simonetta Sommaruga[21]. Guido Flury estime que ce n'est pas suffisant, et en désaccord avec le refus des autorités suisses d'accepter une indemnisation des victimes pour ne pas créer de précédent, lance une initiative populaire demandant l'indemnisation[27],[28].
-Un table ronde assortie d'un fonds d'entraide de 7 millions de francs suisses est créé, auquel Genève refuse cependant de participer[21].
-En 1981 Mariella Mehr, pupille de Pro Juventute publie son autobiographie L'âge de pierre qui relate son expérience personnelle[29]. Clément Wieilly découvre à l'âge de 60 ans qu'il a une sœur en Argovie, et il crée une association d'aide aux personnes qui ont vécu la même situation[30] nommée Agir pour la dignité[27].
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Les faits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1926 est créée  l'Œuvre des enfants de la grand-route sous l'influence d'Alfred Siegfried sur une demande de Giuseppe Motta, afin de retirer les enfants de parents yéniches, leur mode de vie nomade étant considéré comme une mise en danger des enfants et un fléau social qu'il faut éradiquer. Le but est de les sédentariser, mais ils seront surtout placés dans des orphelinats où ils subiront de multiples sévices : déplacements nombreux pour empêcher leurs parents de les retrouver, abus sexuels, travail forcé, électrochocs et stérilisations.
+586 enfants yéniches à la charge des autorités sont séparés de leurs parents, envoyés dans des établissements spécialisés, ou encore recueillis par des parents d'adoption. Gens du voyage, leurs parents étaient a priori considérés comme incapables de les élever. Beaucoup de ces enfants n'ont jamais revu leurs proches, car il était considéré comme nécessaire de les couper de leur mauvaise influence. Certains d'entre eux témoignent d'abus sexuels commis par Alfred Siegfried.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pro_Juventute</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pro_Juventute</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Placements forcés d'enfants tziganes</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Analyses</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des principes eugénistes ont servi à justifier les placements forcés d'enfants yéniches : « les enfants du voyage étaient labellisés comme racialement inférieurs, sur base de recherches menées par des psychiatres comme Josef Joerger (1919), qui avait désigné les Yéniches comme « psychopathes amoraux », « nymphomanes » ou « alcooliques irrécupérables ». », selon la sociologue Véronique Mottier. « Là où l’éducation ne parvenait pas à « améliorer » un enfant yéniche, la stérilisation et d’autres mesures (comme le refus d’un permis de mariage) devaient empêcher toute nouvelle progéniture ainsi dégénérée ».
+Les Yéniches furent aussi particulièrement désignés, pour les mêmes motifs, pour être placés dans des institutions pénales.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pro_Juventute</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pro_Juventute</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Placements forcés d'enfants tziganes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Réactions dans les années 1980</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hebdomadaire alémanique Der Schweizerische Beobachter dévoile le scandale des placements forcés  « Les enfants de la grand-route » et le programme est suspendu. Une série de reportages et documentaires est publiée et diffusée par la Télévision Suisse Romande dès les années 1980.
+Le président de la confédération Alphons Egli présente des excuses publiques, car le projet est financé par l'aide financière de l'État. Le programme est dissout en 1973, ses archives mises sous scellés. Pro Juventute présente des excuses officielles aux victimes. En 2013 la confédération Suisse présente des excuses officielles à travers la conseillère fédérale Simonetta Sommaruga. Guido Flury estime que ce n'est pas suffisant, et en désaccord avec le refus des autorités suisses d'accepter une indemnisation des victimes pour ne pas créer de précédent, lance une initiative populaire demandant l'indemnisation,.
+Un table ronde assortie d'un fonds d'entraide de 7 millions de francs suisses est créé, auquel Genève refuse cependant de participer.
+En 1981 Mariella Mehr, pupille de Pro Juventute publie son autobiographie L'âge de pierre qui relate son expérience personnelle. Clément Wieilly découvre à l'âge de 60 ans qu'il a une sœur en Argovie, et il crée une association d'aide aux personnes qui ont vécu la même situation nommée Agir pour la dignité.
 En 1992 le réalisateur Urs Egger (de) réalise un film documentaire[réf. souhaitée].
-Une exposition photo de 1944  réalisée par le photographe Paul Senn retrace les conditions du foyer pour garçons de Sonnenberg est reprise en version itinérante afin de sensibiliser l'opinion publique[25],[31].
+Une exposition photo de 1944  réalisée par le photographe Paul Senn retrace les conditions du foyer pour garçons de Sonnenberg est reprise en version itinérante afin de sensibiliser l'opinion publique,.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Pro_Juventute</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Pro_Juventute</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle est actuellement organisée en 191 districts et s'appuie sur 8 000 collaborateurs bénévoles qui proposent une aide directe et lancent ou soutiennent des projets dans les domaines de l'éducation, de la formation, de la santé, de l'animation socioculturelle et des loisirs.
 Le siège est à Zurich, le secrétariat romand à Lausanne.
